--- a/biology/Botanique/Cercestis/Cercestis.xlsx
+++ b/biology/Botanique/Cercestis/Cercestis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercestis est un genre de plantes appartenant à la famille des Aracées (Araceae). 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (24 juillet 2017) :
 Cercestis afzelii Schott
 Cercestis camerunensis (Ntépé-Nyamè) Bogner
 Cercestis congoensis Engl.
@@ -524,7 +538,7 @@
 Cercestis mirabilis (N.E. Br.) Bogner
 Cercestis sagittatus Engl.
 Cercestis taiensis Bogner &amp; Knecht
-Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Cercestis afzelii Schott
 Cercestis camerunensis (Ntépé-Nyamè) Bogner
 Cercestis congoensis Engl.
@@ -535,10 +549,10 @@
 Cercestis mirabilis (N.E.Br.) Bogner
 Cercestis sagittatus Engl.
 Cercestis taiensis Bogner &amp; Knecht
-Selon GRIN            (24 juillet 2017)[4] :
+Selon GRIN            (24 juillet 2017) :
 Cercestis congensis Engl.
 Cercestis mirabilis (N. E. Br.) Bogner
-Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017) :
 Cercestis afzelii Schott (1857)
 Cercestis camerunensis (Ntépé-Nyamè) Bogner (1985 publ. 1986)
 Cercestis congoensis Engl. (1892)
@@ -549,12 +563,12 @@
 Cercestis mirabilis (N.E.Br.) Bogner (1985 publ. 1986)
 Cercestis sagittatus Engl. (1911)
 Cercestis taiensis Bogner &amp; Knecht, Bull. Mus. Natl. Hist. Nat., B (1994 publ. 1995)
-Selon NCBI  (24 juillet 2017)[6] :
+Selon NCBI  (24 juillet 2017) :
 Cercestis afzelii
 Cercestis camerunensis
 Cercestis kamerunianus
 Cercestis stigmaticus
-Selon The Plant List            (24 juillet 2017)[7] :
+Selon The Plant List            (24 juillet 2017) :
 Cercestis afzelii Schott
 Cercestis camerunensis (Ntépé-Nyamè) Bogner
 Cercestis congoensis Engl.
@@ -565,7 +579,7 @@
 Cercestis mirabilis (N.E.Br.) Bogner
 Cercestis sagittatus Engl.
 Cercestis taiensis Bogner &amp; Knecht
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Cercestis afzelii Schott
 Cercestis camerunensis (Ntepe-Nyame) Bogner
 Cercestis congensis Engl.
